--- a/experiments/ResultTables/public/Cesar №2-to-DSM comparison results.xlsx
+++ b/experiments/ResultTables/public/Cesar №2-to-DSM comparison results.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labs\Quantum\Data\experiments\ResultTables\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B289EAF3-2BE6-4807-9F84-468D88434107}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="137">
   <si>
     <t>GS</t>
   </si>
@@ -22,410 +28,416 @@
     <t>LR</t>
   </si>
   <si>
+    <t>SVC</t>
+  </si>
+  <si>
     <t>KNN</t>
   </si>
   <si>
     <t>RFC</t>
   </si>
   <si>
-    <t>SVC</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Cesar2</t>
-  </si>
-  <si>
-    <t>Cesar_2</t>
+    <t>NoScale</t>
+  </si>
+  <si>
+    <t>Cesar №2</t>
   </si>
   <si>
     <t>DSM</t>
   </si>
   <si>
-    <t>StandardScaler</t>
-  </si>
-  <si>
-    <t>0,608</t>
+    <t>0,866</t>
+  </si>
+  <si>
+    <t>0,136</t>
   </si>
   <si>
     <t>0,108</t>
   </si>
   <si>
+    <t>0,345</t>
+  </si>
+  <si>
+    <t>0,046</t>
+  </si>
+  <si>
+    <t>0,106</t>
+  </si>
+  <si>
+    <t>0,051</t>
+  </si>
+  <si>
+    <t>0,016</t>
+  </si>
+  <si>
+    <t>0,97</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>0,305</t>
+  </si>
+  <si>
+    <t>0,013</t>
+  </si>
+  <si>
+    <t>0,191</t>
+  </si>
+  <si>
+    <t>0,195</t>
+  </si>
+  <si>
+    <t>0,086</t>
+  </si>
+  <si>
+    <t>0,033</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>0,35</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0,001</t>
+  </si>
+  <si>
+    <t>100000,0</t>
+  </si>
+  <si>
+    <t>rbf</t>
+  </si>
+  <si>
+    <t>100,0</t>
+  </si>
+  <si>
+    <t>30,0</t>
+  </si>
+  <si>
+    <t>experiment index</t>
+  </si>
+  <si>
+    <t>run_label</t>
+  </si>
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>use_signal</t>
+  </si>
+  <si>
+    <t>use_specter</t>
+  </si>
+  <si>
+    <t>specter_threshold</t>
+  </si>
+  <si>
+    <t>signal_scaler</t>
+  </si>
+  <si>
+    <t>resampling_number</t>
+  </si>
+  <si>
+    <t>train_dataset_name</t>
+  </si>
+  <si>
+    <t>test_dataset_name</t>
+  </si>
+  <si>
+    <t>Scores: accuracy</t>
+  </si>
+  <si>
+    <t>Scores: precision</t>
+  </si>
+  <si>
+    <t>Scores: recall</t>
+  </si>
+  <si>
+    <t>Scores: f1</t>
+  </si>
+  <si>
+    <t>Scores: TPR</t>
+  </si>
+  <si>
+    <t>Scores: TNR</t>
+  </si>
+  <si>
+    <t>Axes: a1_x</t>
+  </si>
+  <si>
+    <t>Axes: a1_y</t>
+  </si>
+  <si>
+    <t>Axes: a1_z</t>
+  </si>
+  <si>
+    <t>Axes: a2_x</t>
+  </si>
+  <si>
+    <t>Axes: a2_y</t>
+  </si>
+  <si>
+    <t>Axes: a2_z</t>
+  </si>
+  <si>
+    <t>Statistics: mean</t>
+  </si>
+  <si>
+    <t>Statistics: std</t>
+  </si>
+  <si>
+    <t>Statistics: kurtosis</t>
+  </si>
+  <si>
+    <t>Statistics: skew</t>
+  </si>
+  <si>
+    <t>Statistics: variation</t>
+  </si>
+  <si>
+    <t>Statistics: range</t>
+  </si>
+  <si>
+    <t>Statistics: iqr</t>
+  </si>
+  <si>
+    <t>Statistics: sample_entropy</t>
+  </si>
+  <si>
+    <t>Statistics: shannon_entropy</t>
+  </si>
+  <si>
+    <t>Statistics: energy</t>
+  </si>
+  <si>
+    <t>Statistics: hurst</t>
+  </si>
+  <si>
+    <t>Statistics: petrosian_fd</t>
+  </si>
+  <si>
+    <t>Statistics: zero_crossing</t>
+  </si>
+  <si>
+    <t>Statistics: higuchi_fd</t>
+  </si>
+  <si>
+    <t>Statistics: activity</t>
+  </si>
+  <si>
+    <t>Statistics: complexity</t>
+  </si>
+  <si>
+    <t>Statistics: crest_factor</t>
+  </si>
+  <si>
+    <t>Statistics: permutation_entropy</t>
+  </si>
+  <si>
+    <t>Statistics: svd_entropy</t>
+  </si>
+  <si>
+    <t>Statistics: approx_entropy</t>
+  </si>
+  <si>
+    <t>Statistics: katz_fd</t>
+  </si>
+  <si>
+    <t>Statistics: detrended_fluctuation</t>
+  </si>
+  <si>
+    <t>Hyperparameters: C</t>
+  </si>
+  <si>
+    <t>Hyperparameters: kernel</t>
+  </si>
+  <si>
+    <t>Hyperparameters: n_neighbors</t>
+  </si>
+  <si>
+    <t>Hyperparameters: p</t>
+  </si>
+  <si>
+    <t>Hyperparameters: max_depth</t>
+  </si>
+  <si>
+    <t>Hyperparameters: n_estimators</t>
+  </si>
+  <si>
+    <t>RobustScale</t>
+  </si>
+  <si>
+    <t>0,562</t>
+  </si>
+  <si>
+    <t>0,092</t>
+  </si>
+  <si>
+    <t>0,411</t>
+  </si>
+  <si>
+    <t>0,144</t>
+  </si>
+  <si>
+    <t>0,581</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>0,487</t>
+  </si>
+  <si>
+    <t>0,058</t>
+  </si>
+  <si>
+    <t>0,52</t>
+  </si>
+  <si>
+    <t>0,104</t>
+  </si>
+  <si>
+    <t>0,48</t>
+  </si>
+  <si>
+    <t>sigmoid</t>
+  </si>
+  <si>
+    <t>0,224</t>
+  </si>
+  <si>
+    <t>0,101</t>
+  </si>
+  <si>
+    <t>0,853</t>
+  </si>
+  <si>
+    <t>0,178</t>
+  </si>
+  <si>
+    <t>0,148</t>
+  </si>
+  <si>
+    <t>300,0</t>
+  </si>
+  <si>
+    <t>StandardScale</t>
+  </si>
+  <si>
+    <t>0,116</t>
+  </si>
+  <si>
+    <t>0,939</t>
+  </si>
+  <si>
+    <t>0,187</t>
+  </si>
+  <si>
+    <t>0,753</t>
+  </si>
+  <si>
+    <t>0,156</t>
+  </si>
+  <si>
+    <t>0,209</t>
+  </si>
+  <si>
+    <t>0,154</t>
+  </si>
+  <si>
+    <t>0,82</t>
+  </si>
+  <si>
+    <t>0,362</t>
+  </si>
+  <si>
+    <t>0,056</t>
+  </si>
+  <si>
+    <t>0,327</t>
+  </si>
+  <si>
+    <t>0,095</t>
+  </si>
+  <si>
+    <t>0,366</t>
+  </si>
+  <si>
+    <t>15,0</t>
+  </si>
+  <si>
+    <t>50,0</t>
+  </si>
+  <si>
+    <t>MinMaxScale</t>
+  </si>
+  <si>
+    <t>0,226</t>
+  </si>
+  <si>
+    <t>0,11</t>
+  </si>
+  <si>
+    <t>0,874</t>
+  </si>
+  <si>
+    <t>0,194</t>
+  </si>
+  <si>
+    <t>0,01</t>
+  </si>
+  <si>
+    <t>0,548</t>
+  </si>
+  <si>
+    <t>0,07</t>
+  </si>
+  <si>
+    <t>0,421</t>
+  </si>
+  <si>
+    <t>0,563</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
     <t>0,155</t>
   </si>
   <si>
-    <t>0,569</t>
-  </si>
-  <si>
-    <t>0,476</t>
-  </si>
-  <si>
-    <t>0,508</t>
-  </si>
-  <si>
-    <t>0,456</t>
-  </si>
-  <si>
-    <t>0,384</t>
-  </si>
-  <si>
-    <t>0,117</t>
-  </si>
-  <si>
-    <t>0,552</t>
-  </si>
-  <si>
-    <t>0,892</t>
-  </si>
-  <si>
-    <t>0,159</t>
-  </si>
-  <si>
-    <t>0,194</t>
-  </si>
-  <si>
-    <t>0,509</t>
-  </si>
-  <si>
-    <t>0,054</t>
-  </si>
-  <si>
-    <t>0,107</t>
-  </si>
-  <si>
-    <t>0,022</t>
-  </si>
-  <si>
-    <t>0,019</t>
-  </si>
-  <si>
-    <t>0,057</t>
-  </si>
-  <si>
-    <t>0,079</t>
-  </si>
-  <si>
-    <t>0,121</t>
-  </si>
-  <si>
-    <t>0,109</t>
-  </si>
-  <si>
-    <t>0,113</t>
-  </si>
-  <si>
-    <t>0,0</t>
-  </si>
-  <si>
-    <t>0,106</t>
-  </si>
-  <si>
-    <t>0,104</t>
-  </si>
-  <si>
-    <t>0,156</t>
-  </si>
-  <si>
-    <t>0,313</t>
-  </si>
-  <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>0,943</t>
-  </si>
-  <si>
-    <t>0,11</t>
-  </si>
-  <si>
-    <t>0,088</t>
-  </si>
-  <si>
-    <t>0,49</t>
-  </si>
-  <si>
-    <t>0,506</t>
-  </si>
-  <si>
-    <t>0,767</t>
-  </si>
-  <si>
-    <t>0,46</t>
-  </si>
-  <si>
-    <t>0,945</t>
-  </si>
-  <si>
-    <t>0,888</t>
-  </si>
-  <si>
-    <t>0,501</t>
-  </si>
-  <si>
-    <t>0,195</t>
-  </si>
-  <si>
-    <t>0,191</t>
-  </si>
-  <si>
-    <t>0,035</t>
-  </si>
-  <si>
-    <t>0,031</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>0,13</t>
-  </si>
-  <si>
-    <t>0,203</t>
-  </si>
-  <si>
-    <t>0,197</t>
-  </si>
-  <si>
-    <t>0,19</t>
+    <t>0,193</t>
+  </si>
+  <si>
+    <t>0,059</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>0,103</t>
+  </si>
+  <si>
+    <t>0,902</t>
   </si>
   <si>
     <t>0,183</t>
   </si>
   <si>
-    <t>0,111</t>
-  </si>
-  <si>
-    <t>0,647</t>
-  </si>
-  <si>
-    <t>0,058</t>
-  </si>
-  <si>
-    <t>0,626</t>
-  </si>
-  <si>
-    <t>0,523</t>
-  </si>
-  <si>
-    <t>0,446</t>
-  </si>
-  <si>
-    <t>0,338</t>
-  </si>
-  <si>
-    <t>0,01</t>
-  </si>
-  <si>
-    <t>0,563</t>
-  </si>
-  <si>
-    <t>0,063</t>
-  </si>
-  <si>
-    <t>0,51</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>10,0</t>
-  </si>
-  <si>
-    <t>0,001</t>
-  </si>
-  <si>
-    <t>1000000,0</t>
-  </si>
-  <si>
-    <t>100000,0</t>
-  </si>
-  <si>
-    <t>10000,0</t>
-  </si>
-  <si>
-    <t>100,0</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>5,0</t>
-  </si>
-  <si>
-    <t>15,0</t>
-  </si>
-  <si>
-    <t>30,0</t>
-  </si>
-  <si>
-    <t>20,0</t>
-  </si>
-  <si>
-    <t>200,0</t>
-  </si>
-  <si>
-    <t>linear</t>
-  </si>
-  <si>
-    <t>rbf</t>
-  </si>
-  <si>
-    <t>experiment index</t>
-  </si>
-  <si>
-    <t>run_label</t>
-  </si>
-  <si>
-    <t>model_name</t>
-  </si>
-  <si>
-    <t>use_signal</t>
-  </si>
-  <si>
-    <t>use_specter</t>
-  </si>
-  <si>
-    <t>specter_threshold</t>
-  </si>
-  <si>
-    <t>resampling_number</t>
-  </si>
-  <si>
-    <t>train_dataset_name</t>
-  </si>
-  <si>
-    <t>test_dataset_name</t>
-  </si>
-  <si>
-    <t>signal_scaler</t>
-  </si>
-  <si>
-    <t>Scores: accuracy</t>
-  </si>
-  <si>
-    <t>Scores: precision</t>
-  </si>
-  <si>
-    <t>Scores: recall</t>
-  </si>
-  <si>
-    <t>Scores: f1</t>
-  </si>
-  <si>
-    <t>Scores: TPR</t>
-  </si>
-  <si>
-    <t>Scores: TNR</t>
-  </si>
-  <si>
-    <t>Axes: a1_x</t>
-  </si>
-  <si>
-    <t>Axes: a1_y</t>
-  </si>
-  <si>
-    <t>Axes: a1_z</t>
-  </si>
-  <si>
-    <t>Axes: a2_x</t>
-  </si>
-  <si>
-    <t>Axes: a2_y</t>
-  </si>
-  <si>
-    <t>Axes: a2_z</t>
-  </si>
-  <si>
-    <t>Statistics: mean</t>
-  </si>
-  <si>
-    <t>Statistics: std</t>
-  </si>
-  <si>
-    <t>Statistics: kurtosis</t>
-  </si>
-  <si>
-    <t>Statistics: skew</t>
-  </si>
-  <si>
-    <t>Statistics: variation</t>
-  </si>
-  <si>
-    <t>Statistics: range</t>
-  </si>
-  <si>
-    <t>Statistics: iqr</t>
-  </si>
-  <si>
-    <t>Statistics: sample_entropy</t>
-  </si>
-  <si>
-    <t>Statistics: shannon_entropy</t>
-  </si>
-  <si>
-    <t>Statistics: energy</t>
-  </si>
-  <si>
-    <t>Statistics: hurst</t>
-  </si>
-  <si>
-    <t>Statistics: petrosian_fd</t>
-  </si>
-  <si>
-    <t>Statistics: zero_crossing</t>
-  </si>
-  <si>
-    <t>Statistics: higuchi_fd</t>
-  </si>
-  <si>
-    <t>Statistics: activity</t>
-  </si>
-  <si>
-    <t>Statistics: complexity</t>
-  </si>
-  <si>
-    <t>Statistics: crest_factor</t>
-  </si>
-  <si>
-    <t>Statistics: permutation_entropy</t>
-  </si>
-  <si>
-    <t>Statistics: svd_entropy</t>
-  </si>
-  <si>
-    <t>Statistics: approx_entropy</t>
-  </si>
-  <si>
-    <t>Statistics: katz_fd</t>
-  </si>
-  <si>
-    <t>Statistics: detrended_fluctuation</t>
-  </si>
-  <si>
-    <t>Hyperparameters: C</t>
-  </si>
-  <si>
-    <t>Hyperparameters: n_neighbors</t>
-  </si>
-  <si>
-    <t>Hyperparameters: p</t>
-  </si>
-  <si>
-    <t>Hyperparameters: max_depth</t>
-  </si>
-  <si>
-    <t>Hyperparameters: n_estimators</t>
-  </si>
-  <si>
-    <t>Hyperparameters: kernel</t>
+    <t>0,089</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,17 +531,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -567,9 +587,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -601,9 +621,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -635,9 +673,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -810,35 +866,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="24.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="26.28515625" style="1" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16" width="17.28515625" style="1" customWidth="1"/>
+    <col min="17" max="22" width="15.7109375" style="1" customWidth="1"/>
     <col min="23" max="23" width="24.7109375" style="1" customWidth="1"/>
     <col min="24" max="24" width="23.28515625" style="1" customWidth="1"/>
     <col min="25" max="25" width="30.7109375" style="1" customWidth="1"/>
@@ -862,166 +913,166 @@
     <col min="43" max="43" width="29.28515625" style="1" customWidth="1"/>
     <col min="44" max="44" width="50.28515625" style="1" customWidth="1"/>
     <col min="45" max="45" width="27.7109375" style="1" customWidth="1"/>
-    <col min="46" max="46" width="42.7109375" style="1" customWidth="1"/>
-    <col min="47" max="47" width="27.7109375" style="1" customWidth="1"/>
-    <col min="48" max="48" width="39.7109375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="44.28515625" style="1" customWidth="1"/>
-    <col min="50" max="50" width="35.28515625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="35.28515625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="42.7109375" style="1" customWidth="1"/>
+    <col min="48" max="48" width="27.7109375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="39.7109375" style="1" customWidth="1"/>
+    <col min="50" max="50" width="44.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="2" customFormat="1" ht="22" customHeight="1">
+    <row r="1" spans="1:50" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1040,59 +1091,59 @@
       <c r="F2" s="1">
         <v>500</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
         <v>100</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>5</v>
@@ -1101,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>5</v>
@@ -1155,10 +1206,10 @@
         <v>5</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1177,50 +1228,53 @@
       <c r="F3" s="1">
         <v>500</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1">
         <v>100</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>5</v>
@@ -1288,14 +1342,14 @@
       <c r="AR3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="AS3" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="AT3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1314,50 +1368,53 @@
       <c r="F4" s="1">
         <v>500</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
         <v>100</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="Q4" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>5</v>
@@ -1425,14 +1482,14 @@
       <c r="AR4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="AU4" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="AV4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1440,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1451,50 +1508,53 @@
       <c r="F5" s="1">
         <v>500</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1">
         <v>100</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="Q5" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>5</v>
@@ -1562,14 +1622,14 @@
       <c r="AR5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AV5" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="AW5" s="1" t="s">
-        <v>81</v>
+        <v>32</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1577,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -1588,59 +1648,59 @@
       <c r="F6" s="1">
         <v>500</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="1">
         <v>100</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>5</v>
@@ -1649,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>5</v>
@@ -1702,14 +1762,11 @@
       <c r="AR6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AV6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>76</v>
+      <c r="AS6" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1717,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -1728,59 +1785,59 @@
       <c r="F7" s="1">
         <v>500</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="1">
         <v>100</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>5</v>
@@ -1789,7 +1846,7 @@
         <v>5</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>5</v>
@@ -1843,13 +1900,13 @@
         <v>5</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>83</v>
+        <v>31</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1857,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -1868,50 +1925,53 @@
       <c r="F8" s="1">
         <v>500</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="1">
         <v>100</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>5</v>
@@ -1979,14 +2039,14 @@
       <c r="AR8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AS8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>83</v>
+      <c r="AU8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1994,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
@@ -2005,50 +2065,53 @@
       <c r="F9" s="1">
         <v>500</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="1">
         <v>100</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>5</v>
@@ -2116,14 +2179,11 @@
       <c r="AR9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AT9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU9" s="1" t="s">
-        <v>77</v>
+      <c r="AX9" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2131,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -2142,56 +2202,59 @@
       <c r="F10" s="1">
         <v>500</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="1">
         <v>100</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>5</v>
@@ -2200,7 +2263,7 @@
         <v>5</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="AB10" s="1" t="s">
         <v>5</v>
@@ -2254,13 +2317,10 @@
         <v>5</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX10" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2268,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -2279,56 +2339,59 @@
       <c r="F11" s="1">
         <v>500</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="1">
         <v>100</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>5</v>
@@ -2337,7 +2400,7 @@
         <v>5</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="AB11" s="1" t="s">
         <v>5</v>
@@ -2391,10 +2454,13 @@
         <v>5</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2402,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
@@ -2413,56 +2479,59 @@
       <c r="F12" s="1">
         <v>500</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="1">
         <v>100</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>5</v>
@@ -2471,7 +2540,7 @@
         <v>5</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>5</v>
@@ -2524,11 +2593,14 @@
       <c r="AR12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AS12" s="1" t="s">
-        <v>72</v>
+      <c r="AU12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2536,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -2547,59 +2619,59 @@
       <c r="F13" s="1">
         <v>500</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="1">
         <v>100</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>5</v>
@@ -2608,7 +2680,7 @@
         <v>5</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="AB13" s="1" t="s">
         <v>5</v>
@@ -2661,14 +2733,14 @@
       <c r="AR13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AT13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU13" s="1" t="s">
-        <v>76</v>
+      <c r="AW13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2687,50 +2759,53 @@
       <c r="F14" s="1">
         <v>500</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="1">
         <v>100</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>5</v>
@@ -2799,10 +2874,10 @@
         <v>5</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2821,50 +2896,53 @@
       <c r="F15" s="1">
         <v>500</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="1">
         <v>100</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="W15" s="1" t="s">
         <v>5</v>
@@ -2932,14 +3010,14 @@
       <c r="AR15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="AS15" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="AT15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU15" s="1" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2958,50 +3036,53 @@
       <c r="F16" s="1">
         <v>500</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="1">
         <v>100</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>5</v>
@@ -3069,14 +3150,14 @@
       <c r="AR16" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="AU16" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="AV16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW16" s="1" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3095,50 +3176,53 @@
       <c r="F17" s="1">
         <v>500</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="1">
         <v>100</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>5</v>
@@ -3206,11 +3290,11 @@
       <c r="AR17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AS17" s="1" t="s">
-        <v>71</v>
+      <c r="AW17" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="AX17" s="1" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
